--- a/Code/Results/Cases/Case_4_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_88/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.61644637194973</v>
+        <v>15.44416694687935</v>
       </c>
       <c r="C2">
-        <v>13.83905766354631</v>
+        <v>12.34343551212329</v>
       </c>
       <c r="D2">
-        <v>7.156818793180275</v>
+        <v>5.983537757823745</v>
       </c>
       <c r="E2">
-        <v>7.729568341641804</v>
+        <v>12.97702397613127</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.90777339314233</v>
+        <v>29.31931569586905</v>
       </c>
       <c r="H2">
-        <v>8.655771298249675</v>
+        <v>14.40973664803156</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.149958941354697</v>
+        <v>9.858098002935328</v>
       </c>
       <c r="M2">
-        <v>12.34476073238965</v>
+        <v>14.62578076353742</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.34064036271059</v>
+        <v>22.01437238511651</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.17490212896934</v>
+        <v>14.86894698773107</v>
       </c>
       <c r="C3">
-        <v>13.36533226761133</v>
+        <v>12.16682646210311</v>
       </c>
       <c r="D3">
-        <v>6.661298275076128</v>
+        <v>5.864507215201311</v>
       </c>
       <c r="E3">
-        <v>7.88463810303099</v>
+        <v>13.03395470205515</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.37091428182119</v>
+        <v>29.39768940359202</v>
       </c>
       <c r="H3">
-        <v>8.710124523599882</v>
+        <v>14.47020681464048</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.067441269262768</v>
+        <v>9.865552672570528</v>
       </c>
       <c r="M3">
-        <v>11.71777866650552</v>
+        <v>14.4976060266957</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.2920165028676</v>
+        <v>22.10867947217391</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.23751558782473</v>
+        <v>14.50519841127793</v>
       </c>
       <c r="C4">
-        <v>13.06686227921077</v>
+        <v>12.05707589773945</v>
       </c>
       <c r="D4">
-        <v>6.340044822919485</v>
+        <v>5.791969271045402</v>
       </c>
       <c r="E4">
-        <v>7.982779110641805</v>
+        <v>13.07073553098537</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.07425288917741</v>
+        <v>29.45847696110453</v>
       </c>
       <c r="H4">
-        <v>8.751723648454087</v>
+        <v>14.51036322126207</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.019078050326796</v>
+        <v>9.871474638594021</v>
       </c>
       <c r="M4">
-        <v>11.31870717078752</v>
+        <v>14.4200589478296</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.28080156427414</v>
+        <v>22.17287041197277</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.84230506117149</v>
+        <v>14.35452226847344</v>
       </c>
       <c r="C5">
-        <v>12.94345190876528</v>
+        <v>12.0120604122423</v>
       </c>
       <c r="D5">
-        <v>6.211776838526557</v>
+        <v>5.76259292998526</v>
       </c>
       <c r="E5">
-        <v>8.023522672110163</v>
+        <v>13.08618431730515</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.96159222549693</v>
+        <v>29.48641307433773</v>
       </c>
       <c r="H5">
-        <v>8.77065057964516</v>
+        <v>14.52748749962911</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.999956298845825</v>
+        <v>9.874226508035587</v>
       </c>
       <c r="M5">
-        <v>11.15270540102063</v>
+        <v>14.38877428396388</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.28072038511605</v>
+        <v>22.2006032095446</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.77588024553282</v>
+        <v>14.32936147948111</v>
       </c>
       <c r="C6">
-        <v>12.92285619187532</v>
+        <v>12.00456917856596</v>
       </c>
       <c r="D6">
-        <v>6.192493057025085</v>
+        <v>5.757727439260575</v>
       </c>
       <c r="E6">
-        <v>8.030333830218526</v>
+        <v>13.08877741736394</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.94337943735626</v>
+        <v>29.49124235458087</v>
       </c>
       <c r="H6">
-        <v>8.773909988174342</v>
+        <v>14.53037685706614</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.996816778222516</v>
+        <v>9.874703918052171</v>
       </c>
       <c r="M6">
-        <v>11.1249425510572</v>
+        <v>14.3835993638325</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.28097208723255</v>
+        <v>22.205303129393</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.23223925429624</v>
+        <v>14.50317594836396</v>
       </c>
       <c r="C7">
-        <v>13.06520495466698</v>
+        <v>12.05646993078742</v>
       </c>
       <c r="D7">
-        <v>6.338238650702746</v>
+        <v>5.791572287715761</v>
       </c>
       <c r="E7">
-        <v>7.983325536234393</v>
+        <v>13.07094201318301</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.07270029527789</v>
+        <v>29.45884093181582</v>
       </c>
       <c r="H7">
-        <v>8.751971028520972</v>
+        <v>14.51059108860513</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.018817783170404</v>
+        <v>9.871510379638035</v>
       </c>
       <c r="M7">
-        <v>11.31648183882389</v>
+        <v>14.41963571617739</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.28078256121969</v>
+        <v>22.17323805954518</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.13020562849503</v>
+        <v>15.24814220634168</v>
       </c>
       <c r="C8">
-        <v>13.67736809635656</v>
+        <v>12.28283593775905</v>
       </c>
       <c r="D8">
-        <v>6.989470960937205</v>
+        <v>5.942409773138172</v>
       </c>
       <c r="E8">
-        <v>7.782437476758163</v>
+        <v>12.99627570201718</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.7157997282998</v>
+        <v>29.34369861132362</v>
       </c>
       <c r="H8">
-        <v>8.672747775061792</v>
+        <v>14.42995776780122</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.121033691981452</v>
+        <v>9.860389564230598</v>
       </c>
       <c r="M8">
-        <v>12.13159603253545</v>
+        <v>14.58136294076206</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.31988940580967</v>
+        <v>22.04558112620694</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.44085661351956</v>
+        <v>16.61710646585573</v>
       </c>
       <c r="C9">
-        <v>14.8125471087985</v>
+        <v>12.7146763887369</v>
       </c>
       <c r="D9">
-        <v>8.133236775880652</v>
+        <v>6.240564768325334</v>
       </c>
       <c r="E9">
-        <v>7.411054781397095</v>
+        <v>12.86427475654835</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.23893882765768</v>
+        <v>29.2192080891677</v>
       </c>
       <c r="H9">
-        <v>8.586995687614829</v>
+        <v>14.29590532233552</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.339384670266476</v>
+        <v>9.849229591916489</v>
       </c>
       <c r="M9">
-        <v>13.8130809946663</v>
+        <v>14.90646941252111</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.55284341122799</v>
+        <v>21.84539358293511</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.62757686457162</v>
+        <v>17.55745042859276</v>
       </c>
       <c r="C10">
-        <v>15.60114184179007</v>
+        <v>13.0224554734494</v>
       </c>
       <c r="D10">
-        <v>8.894592037980493</v>
+        <v>6.458488985148474</v>
       </c>
       <c r="E10">
-        <v>7.150972712902099</v>
+        <v>12.77599673575592</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.51582704069869</v>
+        <v>29.19045288884514</v>
       </c>
       <c r="H10">
-        <v>8.572560436816243</v>
+        <v>14.21215506991638</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.510209374101142</v>
+        <v>9.847489198705009</v>
       </c>
       <c r="M10">
-        <v>14.98695098301691</v>
+        <v>15.14856791521595</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.82983279087723</v>
+        <v>21.72924702062728</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.57020586786096</v>
+        <v>17.96942524486289</v>
       </c>
       <c r="C11">
-        <v>15.94911408943309</v>
+        <v>13.15998071546784</v>
       </c>
       <c r="D11">
-        <v>9.224324771405923</v>
+        <v>6.556870121704637</v>
       </c>
       <c r="E11">
-        <v>7.035202203911747</v>
+        <v>12.73770795912675</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.13009407843975</v>
+        <v>29.19114094962651</v>
       </c>
       <c r="H11">
-        <v>8.577905868489164</v>
+        <v>14.17726914536837</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.590070322017197</v>
+        <v>9.8480916213594</v>
       </c>
       <c r="M11">
-        <v>15.49447800435314</v>
+        <v>15.25906350536267</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.98081420170612</v>
+        <v>21.68319870020852</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.9197586754416</v>
+        <v>18.123047475284</v>
       </c>
       <c r="C12">
-        <v>16.07927427458024</v>
+        <v>13.2116664186296</v>
       </c>
       <c r="D12">
-        <v>9.346841459823278</v>
+        <v>6.59397609361738</v>
       </c>
       <c r="E12">
-        <v>6.991709168047216</v>
+        <v>12.72347640599931</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.36741413156373</v>
+        <v>29.19338996910205</v>
       </c>
       <c r="H12">
-        <v>8.581758022646813</v>
+        <v>14.16452191485488</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.620612004316389</v>
+        <v>9.848519368167041</v>
       </c>
       <c r="M12">
-        <v>15.68289713222661</v>
+        <v>15.30092861220415</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.04172216141474</v>
+        <v>21.66674313293061</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.84480380574449</v>
+        <v>18.09006982984396</v>
       </c>
       <c r="C13">
-        <v>16.05131438209516</v>
+        <v>13.2005529550027</v>
       </c>
       <c r="D13">
-        <v>9.320558932825737</v>
+        <v>6.585991897914345</v>
       </c>
       <c r="E13">
-        <v>7.00106105930691</v>
+        <v>12.72652954462589</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.31609496350398</v>
+        <v>29.19281705840599</v>
       </c>
       <c r="H13">
-        <v>8.580845247498049</v>
+        <v>14.16724663146215</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.61402110089543</v>
+        <v>9.848418381389498</v>
       </c>
       <c r="M13">
-        <v>15.64248475029148</v>
+        <v>15.29191166416089</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.02843631945114</v>
+        <v>21.67024337037701</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.59911154511181</v>
+        <v>17.98211220308442</v>
       </c>
       <c r="C14">
-        <v>15.9598550110211</v>
+        <v>13.16424098189027</v>
       </c>
       <c r="D14">
-        <v>9.234451057199196</v>
+        <v>6.559926058781565</v>
       </c>
       <c r="E14">
-        <v>7.031617167416083</v>
+        <v>12.73653176509693</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.1495246613871</v>
+        <v>29.19128608691589</v>
       </c>
       <c r="H14">
-        <v>8.578185488826474</v>
+        <v>14.17621112979785</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.592577041382754</v>
+        <v>9.848122816778407</v>
       </c>
       <c r="M14">
-        <v>15.51005469452189</v>
+        <v>15.26250748350119</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.98574952099596</v>
+        <v>21.68182517834919</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.44765707581867</v>
+        <v>17.91567152496223</v>
       </c>
       <c r="C15">
-        <v>15.90362229328304</v>
+        <v>13.14194677772688</v>
       </c>
       <c r="D15">
-        <v>9.181403289322532</v>
+        <v>6.543939435608642</v>
       </c>
       <c r="E15">
-        <v>7.050378248360839</v>
+        <v>12.74269322377291</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.04810625719702</v>
+        <v>29.19060748582788</v>
       </c>
       <c r="H15">
-        <v>8.576797801306885</v>
+        <v>14.18176252109988</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.579480750100897</v>
+        <v>9.847967745009049</v>
       </c>
       <c r="M15">
-        <v>15.42844762645912</v>
+        <v>15.24449867516001</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.96009297797623</v>
+        <v>21.68904741831307</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.56493302893182</v>
+        <v>17.5301991317848</v>
       </c>
       <c r="C16">
-        <v>15.57817891415719</v>
+        <v>13.01341486330464</v>
       </c>
       <c r="D16">
-        <v>8.872712574230043</v>
+        <v>6.4520408716854</v>
       </c>
       <c r="E16">
-        <v>7.158588154539027</v>
+        <v>12.77853650758221</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.4763474528441</v>
+        <v>29.1906857778522</v>
       </c>
       <c r="H16">
-        <v>8.572460599538221</v>
+        <v>14.21449970690348</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.505032757197607</v>
+        <v>9.847477811452979</v>
       </c>
       <c r="M16">
-        <v>14.95325318548031</v>
+        <v>15.1413515632237</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.82048094234393</v>
+        <v>21.73239347689925</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.01012701966711</v>
+        <v>17.28959433162447</v>
       </c>
       <c r="C17">
-        <v>15.3757255654078</v>
+        <v>12.93390300630691</v>
       </c>
       <c r="D17">
-        <v>8.679116034449272</v>
+        <v>6.395441559248763</v>
       </c>
       <c r="E17">
-        <v>7.225609425601166</v>
+        <v>12.80100310296595</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.13408147830775</v>
+        <v>29.19426727359529</v>
       </c>
       <c r="H17">
-        <v>8.57293218145926</v>
+        <v>14.23540667336973</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.459905589192222</v>
+        <v>9.847533742990713</v>
       </c>
       <c r="M17">
-        <v>14.65498064090157</v>
+        <v>15.07814627979445</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.74133691741145</v>
+        <v>21.7607275682999</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.68610550158977</v>
+        <v>17.14972407015206</v>
       </c>
       <c r="C18">
-        <v>15.25826955166995</v>
+        <v>12.88793797592103</v>
       </c>
       <c r="D18">
-        <v>8.566198193450223</v>
+        <v>6.362818474632141</v>
       </c>
       <c r="E18">
-        <v>7.264398744492456</v>
+        <v>12.81410131837218</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.94036920667138</v>
+        <v>29.19762291350317</v>
       </c>
       <c r="H18">
-        <v>8.57431765612543</v>
+        <v>14.24773410052932</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.43415271187693</v>
+        <v>9.847697191994635</v>
       </c>
       <c r="M18">
-        <v>14.48092791239792</v>
+        <v>15.04182826674034</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.69815873650786</v>
+        <v>21.77766310466072</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.57555096426164</v>
+        <v>17.10211577299436</v>
       </c>
       <c r="C19">
-        <v>15.21832953142199</v>
+        <v>12.87233625940059</v>
       </c>
       <c r="D19">
-        <v>8.5276958784063</v>
+        <v>6.351762335751773</v>
       </c>
       <c r="E19">
-        <v>7.27757399851315</v>
+        <v>12.81856641907726</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.87532542388185</v>
+        <v>29.19898130270174</v>
       </c>
       <c r="H19">
-        <v>8.574974645217123</v>
+        <v>14.25195983319773</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.425468406321531</v>
+        <v>9.847775104954701</v>
       </c>
       <c r="M19">
-        <v>14.42156724493952</v>
+        <v>15.02953869532553</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.68393723978141</v>
+        <v>21.78350666775094</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.06969474406438</v>
+        <v>17.31536124019162</v>
       </c>
       <c r="C20">
-        <v>15.39738210568441</v>
+        <v>12.94239143809273</v>
       </c>
       <c r="D20">
-        <v>8.699886511804742</v>
+        <v>6.401474058566856</v>
       </c>
       <c r="E20">
-        <v>7.218450143959425</v>
+        <v>12.79859328667491</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.17019093381914</v>
+        <v>29.19375185123089</v>
       </c>
       <c r="H20">
-        <v>8.572765833452225</v>
+        <v>14.23314979502572</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.464688506021959</v>
+        <v>9.84751420806297</v>
       </c>
       <c r="M20">
-        <v>14.68699016239106</v>
+        <v>15.08487107910224</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.74951832503759</v>
+        <v>21.75764522815741</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.67147738651107</v>
+        <v>18.01388749138099</v>
       </c>
       <c r="C21">
-        <v>15.98676295523812</v>
+        <v>13.17491760032354</v>
       </c>
       <c r="D21">
-        <v>9.259806344985662</v>
+        <v>6.567586577949736</v>
       </c>
       <c r="E21">
-        <v>7.022632841704564</v>
+        <v>12.73358661833635</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.19832328535797</v>
+        <v>29.19168174961864</v>
       </c>
       <c r="H21">
-        <v>8.57891619071283</v>
+        <v>14.17356545435047</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.598867608101608</v>
+        <v>9.848204220758069</v>
       </c>
       <c r="M21">
-        <v>15.5490546205187</v>
+        <v>15.27114381847679</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.99818524371253</v>
+        <v>21.67839662525615</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.67524698391844</v>
+        <v>18.45647885962209</v>
       </c>
       <c r="C22">
-        <v>16.36255646463257</v>
+        <v>13.32458625731772</v>
       </c>
       <c r="D22">
-        <v>9.612093687394168</v>
+        <v>6.67526607469253</v>
       </c>
       <c r="E22">
-        <v>6.896666611853018</v>
+        <v>12.69266007333134</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.89768405760418</v>
+        <v>29.20192113444274</v>
       </c>
       <c r="H22">
-        <v>8.593644775892292</v>
+        <v>14.1373248090459</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.688306790237935</v>
+        <v>9.849818285244996</v>
       </c>
       <c r="M22">
-        <v>16.09050791187394</v>
+        <v>15.39300337705959</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.18252803255634</v>
+        <v>21.63232910609277</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.14342647508903</v>
+        <v>18.22156806616509</v>
       </c>
       <c r="C23">
-        <v>16.16286592109388</v>
+        <v>13.24492688139345</v>
       </c>
       <c r="D23">
-        <v>9.425305860851644</v>
+        <v>6.617889220201483</v>
       </c>
       <c r="E23">
-        <v>6.963719543500871</v>
+        <v>12.71436109022967</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.52194303978486</v>
+        <v>29.19539337839462</v>
       </c>
       <c r="H23">
-        <v>8.584765643292117</v>
+        <v>14.15641951797161</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.640414576660149</v>
+        <v>9.848850706761226</v>
       </c>
       <c r="M23">
-        <v>15.80351959943381</v>
+        <v>15.32796337225613</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.08210022830023</v>
+        <v>21.65639038399596</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.04277993176167</v>
+        <v>17.30371681933265</v>
       </c>
       <c r="C24">
-        <v>15.38759448967557</v>
+        <v>12.93855460225034</v>
       </c>
       <c r="D24">
-        <v>8.690501217589041</v>
+        <v>6.398747022271531</v>
       </c>
       <c r="E24">
-        <v>7.221686050484453</v>
+        <v>12.79968219800924</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.15385630748901</v>
+        <v>29.19398083554005</v>
       </c>
       <c r="H24">
-        <v>8.572837577113658</v>
+        <v>14.23416917123198</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.462525552640619</v>
+        <v>9.847522630775966</v>
       </c>
       <c r="M24">
-        <v>14.67252667121135</v>
+        <v>15.08183073419214</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.74581228671442</v>
+        <v>21.75903674264692</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.58875208545409</v>
+        <v>16.25765262718558</v>
       </c>
       <c r="C25">
-        <v>14.51307291322056</v>
+        <v>12.5993689236163</v>
       </c>
       <c r="D25">
-        <v>7.837856156491638</v>
+        <v>6.159924109541</v>
       </c>
       <c r="E25">
-        <v>7.50920713571242</v>
+        <v>12.89844988127349</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.79891783497853</v>
+        <v>29.24193345719794</v>
       </c>
       <c r="H25">
-        <v>8.602119288550707</v>
+        <v>14.32958659670582</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.27844979454582</v>
+        <v>9.851111782661505</v>
       </c>
       <c r="M25">
-        <v>13.35711030746254</v>
+        <v>14.81783268275709</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.47195444768141</v>
+        <v>21.89414309349839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_88/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.44416694687935</v>
+        <v>21.61644637194971</v>
       </c>
       <c r="C2">
-        <v>12.34343551212329</v>
+        <v>13.8390576635463</v>
       </c>
       <c r="D2">
-        <v>5.983537757823745</v>
+        <v>7.156818793180304</v>
       </c>
       <c r="E2">
-        <v>12.97702397613127</v>
+        <v>7.729568341641804</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>29.31931569586905</v>
+        <v>22.90777339314248</v>
       </c>
       <c r="H2">
-        <v>14.40973664803156</v>
+        <v>8.655771298249721</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.858098002935328</v>
+        <v>6.149958941354694</v>
       </c>
       <c r="M2">
-        <v>14.62578076353742</v>
+        <v>12.34476073238966</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.01437238511651</v>
+        <v>14.34064036271073</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.86894698773107</v>
+        <v>20.17490212896929</v>
       </c>
       <c r="C3">
-        <v>12.16682646210311</v>
+        <v>13.3653322676113</v>
       </c>
       <c r="D3">
-        <v>5.864507215201311</v>
+        <v>6.661298275076054</v>
       </c>
       <c r="E3">
-        <v>13.03395470205515</v>
+        <v>7.884638103031056</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>29.39768940359202</v>
+        <v>22.37091428182135</v>
       </c>
       <c r="H3">
-        <v>14.47020681464048</v>
+        <v>8.710124523599948</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.865552672570528</v>
+        <v>6.067441269262784</v>
       </c>
       <c r="M3">
-        <v>14.4976060266957</v>
+        <v>11.71777866650553</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.10867947217391</v>
+        <v>14.2920165028677</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.50519841127793</v>
+        <v>19.23751558782468</v>
       </c>
       <c r="C4">
-        <v>12.05707589773945</v>
+        <v>13.06686227921065</v>
       </c>
       <c r="D4">
-        <v>5.791969271045402</v>
+        <v>6.340044822919495</v>
       </c>
       <c r="E4">
-        <v>13.07073553098537</v>
+        <v>7.982779110641738</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>29.45847696110453</v>
+        <v>22.07425288917765</v>
       </c>
       <c r="H4">
-        <v>14.51036322126207</v>
+        <v>8.751723648454087</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.871474638594021</v>
+        <v>6.019078050326825</v>
       </c>
       <c r="M4">
-        <v>14.4200589478296</v>
+        <v>11.31870717078752</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.17287041197277</v>
+        <v>14.28080156427425</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.35452226847344</v>
+        <v>18.84230506117147</v>
       </c>
       <c r="C5">
-        <v>12.0120604122423</v>
+        <v>12.94345190876511</v>
       </c>
       <c r="D5">
-        <v>5.76259292998526</v>
+        <v>6.211776838526593</v>
       </c>
       <c r="E5">
-        <v>13.08618431730515</v>
+        <v>8.023522672110094</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>29.48641307433773</v>
+        <v>21.96159222549701</v>
       </c>
       <c r="H5">
-        <v>14.52748749962911</v>
+        <v>8.770650579645164</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.874226508035587</v>
+        <v>5.999956298845848</v>
       </c>
       <c r="M5">
-        <v>14.38877428396388</v>
+        <v>11.15270540102065</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.2006032095446</v>
+        <v>14.28072038511608</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.32936147948111</v>
+        <v>18.77588024553279</v>
       </c>
       <c r="C6">
-        <v>12.00456917856596</v>
+        <v>12.92285619187518</v>
       </c>
       <c r="D6">
-        <v>5.757727439260575</v>
+        <v>6.19249305702505</v>
       </c>
       <c r="E6">
-        <v>13.08877741736394</v>
+        <v>8.030333830218392</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>29.49124235458087</v>
+        <v>21.94337943735619</v>
       </c>
       <c r="H6">
-        <v>14.53037685706614</v>
+        <v>8.773909988174392</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.874703918052171</v>
+        <v>5.996816778222462</v>
       </c>
       <c r="M6">
-        <v>14.3835993638325</v>
+        <v>11.12494255105717</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.205303129393</v>
+        <v>14.28097208723255</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.50317594836396</v>
+        <v>19.23223925429624</v>
       </c>
       <c r="C7">
-        <v>12.05646993078742</v>
+        <v>13.06520495466696</v>
       </c>
       <c r="D7">
-        <v>5.791572287715761</v>
+        <v>6.33823865070275</v>
       </c>
       <c r="E7">
-        <v>13.07094201318301</v>
+        <v>7.983325536234458</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>29.45884093181582</v>
+        <v>22.07270029527804</v>
       </c>
       <c r="H7">
-        <v>14.51059108860513</v>
+        <v>8.751971028521027</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.871510379638035</v>
+        <v>6.018817783170419</v>
       </c>
       <c r="M7">
-        <v>14.41963571617739</v>
+        <v>11.31648183882387</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.17323805954518</v>
+        <v>14.28078256121977</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.24814220634168</v>
+        <v>21.13020562849505</v>
       </c>
       <c r="C8">
-        <v>12.28283593775905</v>
+        <v>13.67736809635664</v>
       </c>
       <c r="D8">
-        <v>5.942409773138172</v>
+        <v>6.989470960937131</v>
       </c>
       <c r="E8">
-        <v>12.99627570201718</v>
+        <v>7.782437476758296</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>29.34369861132362</v>
+        <v>22.71579972829971</v>
       </c>
       <c r="H8">
-        <v>14.42995776780122</v>
+        <v>8.672747775061787</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.860389564230598</v>
+        <v>6.121033691981468</v>
       </c>
       <c r="M8">
-        <v>14.58136294076206</v>
+        <v>12.13159603253547</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.04558112620694</v>
+        <v>14.31988940580963</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.61710646585573</v>
+        <v>24.44085661351961</v>
       </c>
       <c r="C9">
-        <v>12.7146763887369</v>
+        <v>14.81254710879861</v>
       </c>
       <c r="D9">
-        <v>6.240564768325334</v>
+        <v>8.133236775880746</v>
       </c>
       <c r="E9">
-        <v>12.86427475654835</v>
+        <v>7.411054781397161</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29.2192080891677</v>
+        <v>24.23893882765751</v>
       </c>
       <c r="H9">
-        <v>14.29590532233552</v>
+        <v>8.586995687614687</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.849229591916489</v>
+        <v>6.33938467026651</v>
       </c>
       <c r="M9">
-        <v>14.90646941252111</v>
+        <v>13.81308099466633</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.84539358293511</v>
+        <v>14.55284341122783</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.55745042859276</v>
+        <v>26.6275768645716</v>
       </c>
       <c r="C10">
-        <v>13.0224554734494</v>
+        <v>15.60114184179006</v>
       </c>
       <c r="D10">
-        <v>6.458488985148474</v>
+        <v>8.894592037980493</v>
       </c>
       <c r="E10">
-        <v>12.77599673575592</v>
+        <v>7.150972712902099</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.19045288884514</v>
+        <v>25.51582704069876</v>
       </c>
       <c r="H10">
-        <v>14.21215506991638</v>
+        <v>8.572560436816262</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.847489198705009</v>
+        <v>6.510209374101146</v>
       </c>
       <c r="M10">
-        <v>15.14856791521595</v>
+        <v>14.98695098301689</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.72924702062728</v>
+        <v>14.82983279087729</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.96942524486289</v>
+        <v>27.57020586786089</v>
       </c>
       <c r="C11">
-        <v>13.15998071546784</v>
+        <v>15.94911408943314</v>
       </c>
       <c r="D11">
-        <v>6.556870121704637</v>
+        <v>9.224324771406</v>
       </c>
       <c r="E11">
-        <v>12.73770795912675</v>
+        <v>7.03520220391175</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.19114094962651</v>
+        <v>26.13009407843992</v>
       </c>
       <c r="H11">
-        <v>14.17726914536837</v>
+        <v>8.577905868489211</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.8480916213594</v>
+        <v>6.590070322017175</v>
       </c>
       <c r="M11">
-        <v>15.25906350536267</v>
+        <v>15.49447800435311</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.68319870020852</v>
+        <v>14.98081420170625</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.123047475284</v>
+        <v>27.91975867544155</v>
       </c>
       <c r="C12">
-        <v>13.2116664186296</v>
+        <v>16.07927427458024</v>
       </c>
       <c r="D12">
-        <v>6.59397609361738</v>
+        <v>9.346841459823249</v>
       </c>
       <c r="E12">
-        <v>12.72347640599931</v>
+        <v>6.991709168047083</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.19338996910205</v>
+        <v>26.3674141315638</v>
       </c>
       <c r="H12">
-        <v>14.16452191485488</v>
+        <v>8.581758022646744</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.848519368167041</v>
+        <v>6.620612004316344</v>
       </c>
       <c r="M12">
-        <v>15.30092861220415</v>
+        <v>15.68289713222662</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.66674313293061</v>
+        <v>15.04172216141475</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.09006982984396</v>
+        <v>27.84480380574453</v>
       </c>
       <c r="C13">
-        <v>13.2005529550027</v>
+        <v>16.05131438209503</v>
       </c>
       <c r="D13">
-        <v>6.585991897914345</v>
+        <v>9.32055893282566</v>
       </c>
       <c r="E13">
-        <v>12.72652954462589</v>
+        <v>7.001061059306838</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.19281705840599</v>
+        <v>26.31609496350382</v>
       </c>
       <c r="H13">
-        <v>14.16724663146215</v>
+        <v>8.580845247498024</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.848418381389498</v>
+        <v>6.614021100895435</v>
       </c>
       <c r="M13">
-        <v>15.29191166416089</v>
+        <v>15.6424847502915</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.67024337037701</v>
+        <v>15.02843631945107</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.98211220308442</v>
+        <v>27.59911154511177</v>
       </c>
       <c r="C14">
-        <v>13.16424098189027</v>
+        <v>15.9598550110211</v>
       </c>
       <c r="D14">
-        <v>6.559926058781565</v>
+        <v>9.23445105719912</v>
       </c>
       <c r="E14">
-        <v>12.73653176509693</v>
+        <v>7.031617167416019</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.19128608691589</v>
+        <v>26.14952466138709</v>
       </c>
       <c r="H14">
-        <v>14.17621112979785</v>
+        <v>8.578185488826563</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.848122816778407</v>
+        <v>6.592577041382775</v>
       </c>
       <c r="M14">
-        <v>15.26250748350119</v>
+        <v>15.51005469452187</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.68182517834919</v>
+        <v>14.985749520996</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.91567152496223</v>
+        <v>27.44765707581868</v>
       </c>
       <c r="C15">
-        <v>13.14194677772688</v>
+        <v>15.90362229328301</v>
       </c>
       <c r="D15">
-        <v>6.543939435608642</v>
+        <v>9.18140328932248</v>
       </c>
       <c r="E15">
-        <v>12.74269322377291</v>
+        <v>7.050378248360974</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.19060748582788</v>
+        <v>26.0481062571971</v>
       </c>
       <c r="H15">
-        <v>14.18176252109988</v>
+        <v>8.576797801306897</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.847967745009049</v>
+        <v>6.579480750100903</v>
       </c>
       <c r="M15">
-        <v>15.24449867516001</v>
+        <v>15.42844762645909</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.68904741831307</v>
+        <v>14.96009297797628</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.5301991317848</v>
+        <v>26.56493302893183</v>
       </c>
       <c r="C16">
-        <v>13.01341486330464</v>
+        <v>15.57817891415721</v>
       </c>
       <c r="D16">
-        <v>6.4520408716854</v>
+        <v>8.872712574230066</v>
       </c>
       <c r="E16">
-        <v>12.77853650758221</v>
+        <v>7.158588154539028</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.1906857778522</v>
+        <v>25.47634745284418</v>
       </c>
       <c r="H16">
-        <v>14.21449970690348</v>
+        <v>8.572460599538163</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.847477811452979</v>
+        <v>6.505032757197618</v>
       </c>
       <c r="M16">
-        <v>15.1413515632237</v>
+        <v>14.95325318548033</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.73239347689925</v>
+        <v>14.820480942344</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.28959433162447</v>
+        <v>26.01012701966708</v>
       </c>
       <c r="C17">
-        <v>12.93390300630691</v>
+        <v>15.37572556540776</v>
       </c>
       <c r="D17">
-        <v>6.395441559248763</v>
+        <v>8.679116034449256</v>
       </c>
       <c r="E17">
-        <v>12.80100310296595</v>
+        <v>7.225609425601102</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>29.19426727359529</v>
+        <v>25.13408147830782</v>
       </c>
       <c r="H17">
-        <v>14.23540667336973</v>
+        <v>8.57293218145926</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.847533742990713</v>
+        <v>6.45990558919224</v>
       </c>
       <c r="M17">
-        <v>15.07814627979445</v>
+        <v>14.65498064090154</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.7607275682999</v>
+        <v>14.7413369174115</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.14972407015206</v>
+        <v>25.68610550158965</v>
       </c>
       <c r="C18">
-        <v>12.88793797592103</v>
+        <v>15.25826955166978</v>
       </c>
       <c r="D18">
-        <v>6.362818474632141</v>
+        <v>8.56619819345021</v>
       </c>
       <c r="E18">
-        <v>12.81410131837218</v>
+        <v>7.264398744492389</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29.19762291350317</v>
+        <v>24.94036920667151</v>
       </c>
       <c r="H18">
-        <v>14.24773410052932</v>
+        <v>8.57431765612561</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.847697191994635</v>
+        <v>6.434152711876884</v>
       </c>
       <c r="M18">
-        <v>15.04182826674034</v>
+        <v>14.48092791239787</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.77766310466072</v>
+        <v>14.69815873650805</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.10211577299436</v>
+        <v>25.57555096426158</v>
       </c>
       <c r="C19">
-        <v>12.87233625940059</v>
+        <v>15.21832953142219</v>
       </c>
       <c r="D19">
-        <v>6.351762335751773</v>
+        <v>8.527695878406318</v>
       </c>
       <c r="E19">
-        <v>12.81856641907726</v>
+        <v>7.277573998513281</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.19898130270174</v>
+        <v>24.87532542388193</v>
       </c>
       <c r="H19">
-        <v>14.25195983319773</v>
+        <v>8.574974645217157</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.847775104954701</v>
+        <v>6.425468406321502</v>
       </c>
       <c r="M19">
-        <v>15.02953869532553</v>
+        <v>14.42156724493949</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.78350666775094</v>
+        <v>14.68393723978146</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.31536124019162</v>
+        <v>26.06969474406433</v>
       </c>
       <c r="C20">
-        <v>12.94239143809273</v>
+        <v>15.39738210568455</v>
       </c>
       <c r="D20">
-        <v>6.401474058566856</v>
+        <v>8.699886511804683</v>
       </c>
       <c r="E20">
-        <v>12.79859328667491</v>
+        <v>7.218450143959426</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.19375185123089</v>
+        <v>25.17019093381918</v>
       </c>
       <c r="H20">
-        <v>14.23314979502572</v>
+        <v>8.572765833452218</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.84751420806297</v>
+        <v>6.464688506021924</v>
       </c>
       <c r="M20">
-        <v>15.08487107910224</v>
+        <v>14.68699016239103</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.75764522815741</v>
+        <v>14.74951832503761</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.01388749138099</v>
+        <v>27.67147738651112</v>
       </c>
       <c r="C21">
-        <v>13.17491760032354</v>
+        <v>15.98676295523797</v>
       </c>
       <c r="D21">
-        <v>6.567586577949736</v>
+        <v>9.259806344985652</v>
       </c>
       <c r="E21">
-        <v>12.73358661833635</v>
+        <v>7.02263284170463</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.19168174961864</v>
+        <v>26.19832328535788</v>
       </c>
       <c r="H21">
-        <v>14.17356545435047</v>
+        <v>8.578916190712818</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.848204220758069</v>
+        <v>6.5988676081016</v>
       </c>
       <c r="M21">
-        <v>15.27114381847679</v>
+        <v>15.54905462051872</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.67839662525615</v>
+        <v>14.99818524371246</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.45647885962209</v>
+        <v>28.67524698391835</v>
       </c>
       <c r="C22">
-        <v>13.32458625731772</v>
+        <v>16.36255646463272</v>
       </c>
       <c r="D22">
-        <v>6.67526607469253</v>
+        <v>9.612093687394198</v>
       </c>
       <c r="E22">
-        <v>12.69266007333134</v>
+        <v>6.896666611853153</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.20192113444274</v>
+        <v>26.89768405760425</v>
       </c>
       <c r="H22">
-        <v>14.1373248090459</v>
+        <v>8.593644775892335</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.849818285244996</v>
+        <v>6.688306790237895</v>
       </c>
       <c r="M22">
-        <v>15.39300337705959</v>
+        <v>16.09050791187388</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.63232910609277</v>
+        <v>15.18252803255642</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.22156806616509</v>
+        <v>28.14342647508904</v>
       </c>
       <c r="C23">
-        <v>13.24492688139345</v>
+        <v>16.16286592109391</v>
       </c>
       <c r="D23">
-        <v>6.617889220201483</v>
+        <v>9.425305860851633</v>
       </c>
       <c r="E23">
-        <v>12.71436109022967</v>
+        <v>6.963719543500938</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.19539337839462</v>
+        <v>26.52194303978483</v>
       </c>
       <c r="H23">
-        <v>14.15641951797161</v>
+        <v>8.584765643292105</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.848850706761226</v>
+        <v>6.640414576660188</v>
       </c>
       <c r="M23">
-        <v>15.32796337225613</v>
+        <v>15.8035195994338</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.65639038399596</v>
+        <v>15.08210022830018</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.30371681933265</v>
+        <v>26.0427799317617</v>
       </c>
       <c r="C24">
-        <v>12.93855460225034</v>
+        <v>15.38759448967544</v>
       </c>
       <c r="D24">
-        <v>6.398747022271531</v>
+        <v>8.690501217589086</v>
       </c>
       <c r="E24">
-        <v>12.79968219800924</v>
+        <v>7.221686050484517</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.19398083554005</v>
+        <v>25.15385630748889</v>
       </c>
       <c r="H24">
-        <v>14.23416917123198</v>
+        <v>8.572837577113598</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.847522630775966</v>
+        <v>6.462525552640638</v>
       </c>
       <c r="M24">
-        <v>15.08183073419214</v>
+        <v>14.67252667121135</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.75903674264692</v>
+        <v>14.74581228671432</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.25765262718558</v>
+        <v>23.5887520854541</v>
       </c>
       <c r="C25">
-        <v>12.5993689236163</v>
+        <v>14.51307291322047</v>
       </c>
       <c r="D25">
-        <v>6.159924109541</v>
+        <v>7.837856156491571</v>
       </c>
       <c r="E25">
-        <v>12.89844988127349</v>
+        <v>7.509207135712353</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>29.24193345719794</v>
+        <v>23.79891783497856</v>
       </c>
       <c r="H25">
-        <v>14.32958659670582</v>
+        <v>8.602119288550684</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.851111782661505</v>
+        <v>6.278449794545775</v>
       </c>
       <c r="M25">
-        <v>14.81783268275709</v>
+        <v>13.35711030746255</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.89414309349839</v>
+        <v>14.47195444768137</v>
       </c>
     </row>
   </sheetData>
